--- a/data/match_3.xlsx
+++ b/data/match_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD3BA00-876A-4C8B-A396-9A171D0EE9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500B4DB-4DA0-476C-AE8B-8344640388EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -159,9 +159,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>Оксанич Кирилл</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Конаков Никита</t>
   </si>
   <si>
-    <t>Фёдоров Михаил</t>
-  </si>
-  <si>
     <t>Сибиряков Георгий</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
   </si>
   <si>
     <t>Титаренко Антон</t>
-  </si>
-  <si>
-    <t>Еременко Владислав</t>
   </si>
   <si>
     <t>0:0</t>
@@ -588,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" activeCellId="1" sqref="A19:XFD19 A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +678,7 @@
         <v>12.5</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -705,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -770,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -936,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -954,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1016,37 +1007,43 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -1061,25 +1058,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1093,82 +1090,82 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1176,22 +1173,22 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1203,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -1215,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s">
         <v>32</v>
@@ -1239,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1259,13 +1256,13 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -1274,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1286,55 +1283,55 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>31</v>
       </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9" t="s">
-        <v>32</v>
-      </c>
       <c r="S9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
         <v>31</v>
-      </c>
-      <c r="W9">
-        <v>3</v>
-      </c>
-      <c r="X9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>32</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1342,22 +1339,22 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1369,129 +1366,129 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
         <v>31</v>
       </c>
-      <c r="S10">
-        <v>5</v>
-      </c>
-      <c r="T10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10">
-        <v>3</v>
-      </c>
-      <c r="V10" t="s">
-        <v>32</v>
-      </c>
       <c r="W10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>26</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
       <c r="K11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X11" t="s">
         <v>32</v>
@@ -1500,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Z11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1523,22 +1520,22 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -1547,34 +1544,34 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X12" t="s">
         <v>32</v>
@@ -1583,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1591,13 +1588,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -1606,22 +1603,22 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
       <c r="I13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -1630,16 +1627,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="s">
         <v>29</v>
@@ -1654,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X13" t="s">
         <v>32</v>
@@ -1674,19 +1671,19 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1695,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1707,31 +1704,31 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1757,82 +1754,82 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15" t="s">
         <v>31</v>
       </c>
-      <c r="S15">
-        <v>5</v>
-      </c>
-      <c r="T15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15">
-        <v>5</v>
-      </c>
-      <c r="X15" t="s">
-        <v>32</v>
-      </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1840,49 +1837,49 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5</v>
+        <v>18.5</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="s">
         <v>30</v>
@@ -1891,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
         <v>30</v>
@@ -1903,13 +1900,13 @@
         <v>3</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1923,49 +1920,43 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
         <v>30</v>
@@ -1986,19 +1977,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Y17">
         <v>0</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>29</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2006,13 +1994,13 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18.5</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -2021,61 +2009,61 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2087,249 +2075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19">
-        <v>5</v>
-      </c>
-      <c r="X19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>32</v>
-      </c>
-      <c r="W20">
-        <v>5</v>
-      </c>
-      <c r="X20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21">
-        <v>5</v>
-      </c>
-      <c r="T21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W21">
-        <v>5</v>
-      </c>
-      <c r="X21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA21">
-    <sortCondition ref="B1:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/match_3.xlsx
+++ b/data/match_3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500B4DB-4DA0-476C-AE8B-8344640388EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2984D0B0-0BB7-4937-8170-29B5D71A6611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -582,7 +582,7 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="1" sqref="A19:XFD19 A6:XFD6"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,6 +1988,9 @@
       <c r="Y17">
         <v>0</v>
       </c>
+      <c r="Z17" t="s">
+        <v>29</v>
+      </c>
       <c r="AA17">
         <v>0</v>
       </c>
